--- a/BackTest/2019-11-02 BackTest BZNT.xlsx
+++ b/BackTest/2019-11-02 BackTest BZNT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7900000000000018</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23.52941176470585</v>
+      </c>
       <c r="L12" t="n">
         <v>4.403999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9300000000000015</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>4.405999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.070000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>22.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>4.411999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.070000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.93650793650791</v>
+      </c>
       <c r="L15" t="n">
         <v>4.428999999999998</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.090000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-1.639344262295048</v>
+      </c>
       <c r="L16" t="n">
         <v>4.431999999999998</v>
       </c>
